--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D30EB3-E2C1-4414-9271-2EAE6CAA7DA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EE455-1776-4569-9B7C-9D820C78E56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="1764" windowWidth="12936" windowHeight="13692" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7176" yWindow="3156" windowWidth="20940" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -117,6 +117,33 @@
   </si>
   <si>
     <t>RUSSPACESYSTEMS</t>
+  </si>
+  <si>
+    <t>https://cloud.oracle.com</t>
+  </si>
+  <si>
+    <t>M247</t>
+  </si>
+  <si>
+    <t>GO-DADDY-COM-LLC</t>
+  </si>
+  <si>
+    <t>LEASEWEB-USA-NYC-11</t>
+  </si>
+  <si>
+    <t>UCLOUD-HK-AS-AP</t>
+  </si>
+  <si>
+    <t>CELLCO-PART</t>
+  </si>
+  <si>
+    <t>LINODE-AP Linode, LLC</t>
+  </si>
+  <si>
+    <t>QUANTILNETWORKS</t>
+  </si>
+  <si>
+    <t>HVC-AS</t>
   </si>
 </sst>
 </file>
@@ -479,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -746,6 +773,84 @@
         <v>28</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>40676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>31898</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>9009</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>398101</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>396362</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>135377</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>6167</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>63949</v>
+      </c>
+      <c r="C41" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>54994</v>
+      </c>
+      <c r="C42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>29802</v>
+      </c>
+      <c r="C43" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -757,8 +862,9 @@
     <hyperlink ref="B18" r:id="rId6" xr:uid="{524B2DF2-41DB-40EC-8372-77BB17D106C8}"/>
     <hyperlink ref="B17" r:id="rId7" display="http://www.quadranet.com/" xr:uid="{4CD25552-1DC0-40C3-9E57-B3939F8EA90A}"/>
     <hyperlink ref="B27" r:id="rId8" xr:uid="{16F016D9-9F2D-4793-9189-CFC1AD507B21}"/>
+    <hyperlink ref="B35" r:id="rId9" display="https://cloud.oracle.com/" xr:uid="{FC51DCAB-21BD-4672-986E-92D9679D10B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5EE455-1776-4569-9B7C-9D820C78E56B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66160775-4AD9-45F3-BAA3-B9BEB8BB2A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7176" yWindow="3156" windowWidth="20940" windowHeight="13668" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13110" yWindow="1400" windowWidth="10860" windowHeight="12470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>HVC-AS</t>
+  </si>
+  <si>
+    <t>EDCL-AS-AP Eons Data</t>
+  </si>
+  <si>
+    <t>DMIT</t>
+  </si>
+  <si>
+    <t>HINET</t>
+  </si>
+  <si>
+    <t>COLOG</t>
+  </si>
+  <si>
+    <t> WSCLOUDX-AS-AP </t>
+  </si>
+  <si>
+    <t>HKKFGL-AS-AP</t>
+  </si>
+  <si>
+    <t>LIMESTONENETWORKS</t>
+  </si>
+  <si>
+    <t>VPLSNET</t>
+  </si>
+  <si>
+    <t> TWC-20001-PACWEST</t>
+  </si>
+  <si>
+    <t>XTOM-TOKYO</t>
   </si>
 </sst>
 </file>
@@ -506,16 +536,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14"/>
   <cols>
-    <col min="2" max="2" width="32.77734375" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="32.75" customWidth="1"/>
+    <col min="3" max="3" width="30.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -849,6 +879,94 @@
       </c>
       <c r="C43" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>138997</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>54574</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>3462</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>22418</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>140224</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>133115</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>46475</v>
+      </c>
+      <c r="C50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>35908</v>
+      </c>
+      <c r="C51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>20001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>29802</v>
+      </c>
+      <c r="C53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>43959</v>
+      </c>
+      <c r="C54" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66160775-4AD9-45F3-BAA3-B9BEB8BB2A10}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7266B-276D-48E7-ADC0-62FBD9849032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="1400" windowWidth="10860" windowHeight="12470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -174,6 +174,12 @@
   </si>
   <si>
     <t>XTOM-TOKYO</t>
+  </si>
+  <si>
+    <t>KIRINONET</t>
+  </si>
+  <si>
+    <t>MICROSOFT-CORP-MSN-AS-BLOCK</t>
   </si>
 </sst>
 </file>
@@ -536,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -967,6 +973,30 @@
       </c>
       <c r="C54" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>41378</v>
+      </c>
+      <c r="C55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>8075</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>29802</v>
+      </c>
+      <c r="C57" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD7266B-276D-48E7-ADC0-62FBD9849032}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76DD61-CC91-444E-93AF-23300641110B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24840" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -180,6 +180,44 @@
   </si>
   <si>
     <t>MICROSOFT-CORP-MSN-AS-BLOCK</t>
+  </si>
+  <si>
+    <t>FBDC FreeBit Co.,Ltd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JTCL-JP-AS Jupiter Telecommunication Co. Ltd</t>
+  </si>
+  <si>
+    <t>KIXS-AS-KR Korea Telecom</t>
+  </si>
+  <si>
+    <t>CENTURYLINK-US-LEGACY-QWEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Online SAS</t>
+  </si>
+  <si>
+    <t>AMAZON-AES</t>
+  </si>
+  <si>
+    <t>BDCOM-BD Rangs Nilu Square</t>
+  </si>
+  <si>
+    <t>OVH</t>
+  </si>
+  <si>
+    <t>NIXVALIP-AS NIXVAL Datacenter</t>
+  </si>
+  <si>
+    <t>ATC HOLDING FIBRA MEXICO</t>
+  </si>
+  <si>
+    <t>LGDACOM LG DACOM Corporation</t>
+  </si>
+  <si>
+    <t>FASTER-AS</t>
   </si>
 </sst>
 </file>
@@ -542,10 +580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -997,6 +1035,112 @@
       </c>
       <c r="C57" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>10013</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>9824</v>
+      </c>
+      <c r="C59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>4766</v>
+      </c>
+      <c r="C60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>209</v>
+      </c>
+      <c r="C61" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>12876</v>
+      </c>
+      <c r="C62" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>14618</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>43260</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>7565</v>
+      </c>
+      <c r="C65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>16276</v>
+      </c>
+      <c r="C66" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>13287</v>
+      </c>
+      <c r="C67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>40676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>28438</v>
+      </c>
+      <c r="C69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>3786</v>
+      </c>
+      <c r="C70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>24641</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA76DD61-CC91-444E-93AF-23300641110B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95646446-E6FA-48B7-A8FF-407D42D8F684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24840" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -218,6 +218,15 @@
   </si>
   <si>
     <t>FASTER-AS</t>
+  </si>
+  <si>
+    <t>PROFITBRICKS-USA</t>
+  </si>
+  <si>
+    <t>ASIATECH</t>
+  </si>
+  <si>
+    <t>Leaseweb Uk Limited</t>
   </si>
 </sst>
 </file>
@@ -580,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1141,6 +1150,30 @@
       </c>
       <c r="C71" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>54548</v>
+      </c>
+      <c r="C73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>43754</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>205544</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95646446-E6FA-48B7-A8FF-407D42D8F684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06FC41-79D4-4B4D-8D4B-2FDEB18BC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24880" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="1550" windowWidth="17730" windowHeight="13430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -227,13 +228,150 @@
   </si>
   <si>
     <t>Leaseweb Uk Limited</t>
+  </si>
+  <si>
+    <t>ZAYO</t>
+  </si>
+  <si>
+    <t>CAPL-AS-AP Contabo</t>
+  </si>
+  <si>
+    <t>GCI</t>
+  </si>
+  <si>
+    <t>MULTA-ASN1</t>
+  </si>
+  <si>
+    <t>IBOSS-8-ASN</t>
+  </si>
+  <si>
+    <t>SKB-VITSSEN-AS-KR SK</t>
+  </si>
+  <si>
+    <t>BIH-GLOBAL</t>
+  </si>
+  <si>
+    <t>CONTABO</t>
+  </si>
+  <si>
+    <t>WII</t>
+  </si>
+  <si>
+    <t>LEASEWEB-USA-DAL</t>
+  </si>
+  <si>
+    <t>SOFTLAYER</t>
+  </si>
+  <si>
+    <t>KINXIDC-AS-KR KINX</t>
+  </si>
+  <si>
+    <t>SAKURA-B SAKURA Internet Inc.</t>
+  </si>
+  <si>
+    <t>SKB-AS SK Broadband Co Ltd</t>
+  </si>
+  <si>
+    <t>ARACHNITEC</t>
+  </si>
+  <si>
+    <t>TELKOMNET-AS-AP PT</t>
+  </si>
+  <si>
+    <t>TMNET-AS-AP TM Net</t>
+  </si>
+  <si>
+    <t>TV AZTECA SUCURSAL</t>
+  </si>
+  <si>
+    <t>EPM Telecomunicaciones S.A. E.S.P.</t>
+  </si>
+  <si>
+    <t>ARTCOMS-AS</t>
+  </si>
+  <si>
+    <t>SKB-VITSSEN-AS-KR SK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ASDETUK</t>
+  </si>
+  <si>
+    <t>ICONPLN-ID-AP-ISP </t>
+  </si>
+  <si>
+    <t>BIZNET-AS-AP BIZNET</t>
+  </si>
+  <si>
+    <t>TTNET</t>
+  </si>
+  <si>
+    <t>BLINKLOAD-AS-AP</t>
+  </si>
+  <si>
+    <t>LINTASARTA-AS-AP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VEGANET-TELEKOM</t>
+  </si>
+  <si>
+    <t>AS6453</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LVLT-3549</t>
+  </si>
+  <si>
+    <t>UFINET PANAMA S.A.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>登录</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>|</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>注册</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF4A4A4A"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>|support|xmlrpc|admin|login|vpn|.zip|.rar|.tar.gz|search</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +412,26 @@
       <name val="Inherit"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF4A4A4A"/>
+      <name val="Courier New"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -296,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -308,6 +466,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -589,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1152,28 +1311,284 @@
         <v>61</v>
       </c>
     </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>54548</v>
+      </c>
+      <c r="C72" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="73" spans="1:3">
       <c r="A73">
-        <v>54548</v>
+        <v>43754</v>
       </c>
       <c r="C73" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74">
-        <v>43754</v>
-      </c>
-      <c r="C74" t="s">
-        <v>63</v>
+        <v>205544</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75">
-        <v>205544</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>64</v>
+        <v>6461</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>141995</v>
+      </c>
+      <c r="C76" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>8047</v>
+      </c>
+      <c r="C77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>35916</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79">
+        <v>396253</v>
+      </c>
+      <c r="C79" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80">
+        <v>18310</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81">
+        <v>64096</v>
+      </c>
+      <c r="C81" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82">
+        <v>40021</v>
+      </c>
+      <c r="C82" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83">
+        <v>32097</v>
+      </c>
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84">
+        <v>394380</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85">
+        <v>36351</v>
+      </c>
+      <c r="C85" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86">
+        <v>9286</v>
+      </c>
+      <c r="C86" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87">
+        <v>16509</v>
+      </c>
+      <c r="C87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88">
+        <v>9370</v>
+      </c>
+      <c r="C88" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89">
+        <v>9318</v>
+      </c>
+      <c r="C89" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90">
+        <v>6921</v>
+      </c>
+      <c r="C90" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91">
+        <v>7713</v>
+      </c>
+      <c r="C91" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92">
+        <v>4788</v>
+      </c>
+      <c r="C92" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93">
+        <v>262186</v>
+      </c>
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94">
+        <v>13489</v>
+      </c>
+      <c r="C94" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95">
+        <v>21353</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96">
+        <v>18310</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97">
+        <v>61317</v>
+      </c>
+      <c r="C97" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98">
+        <v>9341</v>
+      </c>
+      <c r="C98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99">
+        <v>17451</v>
+      </c>
+      <c r="C99" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100">
+        <v>47331</v>
+      </c>
+      <c r="C100" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101">
+        <v>9833</v>
+      </c>
+      <c r="C101" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102">
+        <v>4800</v>
+      </c>
+      <c r="C102" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103">
+        <v>206119</v>
+      </c>
+      <c r="C103" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104">
+        <v>6453</v>
+      </c>
+      <c r="C104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105">
+        <v>3549</v>
+      </c>
+      <c r="C105" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106">
+        <v>52468</v>
+      </c>
+      <c r="C106" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1192,4 +1607,23 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680FAD18-A3E6-45C9-BBF9-245105444508}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC06FC41-79D4-4B4D-8D4B-2FDEB18BC431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92E0593-8E69-4AA9-85DB-FD22DDA49136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="1550" windowWidth="17730" windowHeight="13430" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="640" windowWidth="17730" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -365,6 +365,34 @@
       <t>|support|xmlrpc|admin|login|vpn|.zip|.rar|.tar.gz|search</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WVNET</t>
+  </si>
+  <si>
+    <t>HRTC</t>
+  </si>
+  <si>
+    <t>INTERQ GMO Internet,Inc</t>
+  </si>
+  <si>
+    <t>HOTWIRE-COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>SNOCO</t>
+  </si>
+  <si>
+    <t>LEASEWEB-USA-LAX-11</t>
+  </si>
+  <si>
+    <t>CNNIC-TENCENT-NET-AP Shenzhe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIH-GLOBAL BIH-Global Internet Harbor</t>
+  </si>
+  <si>
+    <t>TV AZTECA SUCURSAL COLOMBIA</t>
   </si>
 </sst>
 </file>
@@ -748,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C106"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A117" sqref="A117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1589,6 +1617,94 @@
       </c>
       <c r="C106" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107">
+        <v>7925</v>
+      </c>
+      <c r="C107" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108">
+        <v>11525</v>
+      </c>
+      <c r="C108" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109">
+        <v>6921</v>
+      </c>
+      <c r="C109" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110">
+        <v>7506</v>
+      </c>
+      <c r="C110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111">
+        <v>23089</v>
+      </c>
+      <c r="C111" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112">
+        <v>35956</v>
+      </c>
+      <c r="C112" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113">
+        <v>45090</v>
+      </c>
+      <c r="C113" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114">
+        <v>395954</v>
+      </c>
+      <c r="C114" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115">
+        <v>64096</v>
+      </c>
+      <c r="C115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116">
+        <v>41378</v>
+      </c>
+      <c r="C116" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117">
+        <v>262186</v>
+      </c>
+      <c r="C117" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1729,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680FAD18-A3E6-45C9-BBF9-245105444508}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
@@ -1625,5 +1743,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F92E0593-8E69-4AA9-85DB-FD22DDA49136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E07D1-C1D0-4419-9E04-59B6453F6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="640" windowWidth="17730" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="970" windowWidth="17730" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>TV AZTECA SUCURSAL COLOMBIA</t>
+  </si>
+  <si>
+    <t>UK2NET-AS</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="A119" sqref="A119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
@@ -1705,6 +1708,14 @@
       </c>
       <c r="C117" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118">
+        <v>13213</v>
+      </c>
+      <c r="C118" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/垃圾ASN.xlsx
+++ b/垃圾ASN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ScannerReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371E07D1-C1D0-4419-9E04-59B6453F6CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{788D660C-4FB9-48E4-9DC8-EEB44D6A81C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="970" windowWidth="17730" windowHeight="13430" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4710" yWindow="1540" windowWidth="12440" windowHeight="10850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="118">
   <si>
     <t>https://www.digitalocean.com</t>
   </si>
@@ -260,9 +260,6 @@
     <t>LEASEWEB-USA-DAL</t>
   </si>
   <si>
-    <t>SOFTLAYER</t>
-  </si>
-  <si>
     <t>KINXIDC-AS-KR KINX</t>
   </si>
   <si>
@@ -314,10 +311,6 @@
   </si>
   <si>
     <t>VEGANET-TELEKOM</t>
-  </si>
-  <si>
-    <t>AS6453</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LVLT-3549</t>
@@ -396,6 +389,48 @@
   </si>
   <si>
     <t>UK2NET-AS</t>
+  </si>
+  <si>
+    <t>HURRICANE</t>
+  </si>
+  <si>
+    <t>TATA COMMUNICATIONS (AMERICA) INC</t>
+  </si>
+  <si>
+    <t>SOFTLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clouvider Limited</t>
+  </si>
+  <si>
+    <t>AKARI-NETWORKS</t>
+  </si>
+  <si>
+    <t>PWN-ASBLK</t>
+  </si>
+  <si>
+    <t>DFJBINC</t>
+  </si>
+  <si>
+    <t>HARCOM</t>
+  </si>
+  <si>
+    <t>CCHL-AS-AP Cloud</t>
+  </si>
+  <si>
+    <t>NGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality Technology Services, LLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NexG Co., LTD</t>
+  </si>
+  <si>
+    <t>ANYUN-INTERNET-TECHNOLOGY</t>
   </si>
 </sst>
 </file>
@@ -779,16 +814,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A104" sqref="A104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
     <col min="2" max="2" width="32.75" customWidth="1"/>
-    <col min="3" max="3" width="30.58203125" customWidth="1"/>
+    <col min="3" max="3" width="36.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1451,7 +1486,7 @@
         <v>36351</v>
       </c>
       <c r="C85" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1459,7 +1494,7 @@
         <v>9286</v>
       </c>
       <c r="C86" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1475,7 +1510,7 @@
         <v>9370</v>
       </c>
       <c r="C88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1483,7 +1518,7 @@
         <v>9318</v>
       </c>
       <c r="C89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1491,7 +1526,7 @@
         <v>6921</v>
       </c>
       <c r="C90" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1499,7 +1534,7 @@
         <v>7713</v>
       </c>
       <c r="C91" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1507,7 +1542,7 @@
         <v>4788</v>
       </c>
       <c r="C92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1515,7 +1550,7 @@
         <v>262186</v>
       </c>
       <c r="C93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1523,7 +1558,7 @@
         <v>13489</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1531,7 +1566,7 @@
         <v>21353</v>
       </c>
       <c r="C95" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1539,7 +1574,7 @@
         <v>18310</v>
       </c>
       <c r="C96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1547,7 +1582,7 @@
         <v>61317</v>
       </c>
       <c r="C97" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1555,7 +1590,7 @@
         <v>9341</v>
       </c>
       <c r="C98" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1563,7 +1598,7 @@
         <v>17451</v>
       </c>
       <c r="C99" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1571,7 +1606,7 @@
         <v>47331</v>
       </c>
       <c r="C100" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1579,7 +1614,7 @@
         <v>9833</v>
       </c>
       <c r="C101" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -1587,7 +1622,7 @@
         <v>4800</v>
       </c>
       <c r="C102" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -1595,7 +1630,7 @@
         <v>206119</v>
       </c>
       <c r="C103" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1603,7 +1638,7 @@
         <v>6453</v>
       </c>
       <c r="C104" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -1611,7 +1646,7 @@
         <v>3549</v>
       </c>
       <c r="C105" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -1619,7 +1654,7 @@
         <v>52468</v>
       </c>
       <c r="C106" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1627,7 +1662,7 @@
         <v>7925</v>
       </c>
       <c r="C107" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -1635,7 +1670,7 @@
         <v>11525</v>
       </c>
       <c r="C108" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -1643,7 +1678,7 @@
         <v>6921</v>
       </c>
       <c r="C109" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1651,7 +1686,7 @@
         <v>7506</v>
       </c>
       <c r="C110" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -1659,7 +1694,7 @@
         <v>23089</v>
       </c>
       <c r="C111" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -1667,7 +1702,7 @@
         <v>35956</v>
       </c>
       <c r="C112" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1675,7 +1710,7 @@
         <v>45090</v>
       </c>
       <c r="C113" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -1683,7 +1718,7 @@
         <v>395954</v>
       </c>
       <c r="C114" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -1691,7 +1726,7 @@
         <v>64096</v>
       </c>
       <c r="C115" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1707,7 +1742,7 @@
         <v>262186</v>
       </c>
       <c r="C117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -1715,7 +1750,95 @@
         <v>13213</v>
       </c>
       <c r="C118" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119">
+        <v>6939</v>
+      </c>
+      <c r="C119" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120">
+        <v>62240</v>
+      </c>
+      <c r="C120" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121">
+        <v>38136</v>
+      </c>
+      <c r="C121" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122">
+        <v>29979</v>
+      </c>
+      <c r="C122" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123">
+        <v>11672</v>
+      </c>
+      <c r="C123" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124">
+        <v>22646</v>
+      </c>
+      <c r="C124" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125">
+        <v>134366</v>
+      </c>
+      <c r="C125" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126">
+        <v>396899</v>
+      </c>
+      <c r="C126" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127">
+        <v>20141</v>
+      </c>
+      <c r="C127" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128">
+        <v>17877</v>
+      </c>
+      <c r="C128" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129">
+        <v>134196</v>
+      </c>
+      <c r="C129" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1741,14 +1864,14 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
